--- a/DL_List_Self.xlsx
+++ b/DL_List_Self.xlsx
@@ -80,12 +80,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sushil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Saving summary hints</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>S.No</t>
   </si>
@@ -287,9 +311,6 @@
     <t>Doubt clearing</t>
   </si>
   <si>
-    <t>Model summary saving hints</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Vj-gsvbFhbA&amp;t=9889s</t>
   </si>
   <si>
@@ -312,6 +333,15 @@
   </si>
   <si>
     <t>Integrate the same into modular code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=omvP5vpoPXQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SPayrkk-i6Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4dkBr84K5WI&amp;t=1s</t>
   </si>
 </sst>
 </file>
@@ -447,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -478,6 +508,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -761,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1089,7 +1120,9 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
@@ -1106,7 +1139,9 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
@@ -1126,64 +1161,64 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
-        <v>72</v>
+      <c r="G21" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -1598,9 +1633,11 @@
     <hyperlink ref="G13" r:id="rId10"/>
     <hyperlink ref="G14" r:id="rId11"/>
     <hyperlink ref="G18" r:id="rId12"/>
+    <hyperlink ref="G21" r:id="rId13"/>
+    <hyperlink ref="G20" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId13"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/DL_List_Self.xlsx
+++ b/DL_List_Self.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>S.No</t>
   </si>
@@ -342,6 +342,30 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4dkBr84K5WI&amp;t=1s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P0nAnHT3QIE&amp;t=3s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BcZfAvuGR60&amp;t=1s</t>
+  </si>
+  <si>
+    <t>14th OCT</t>
+  </si>
+  <si>
+    <t>23th OCT</t>
+  </si>
+  <si>
+    <t>24th OCT</t>
+  </si>
+  <si>
+    <t>28th OCT</t>
+  </si>
+  <si>
+    <t>Callbackmodular code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PZ5C6Is4Xfg&amp;t=1s</t>
   </si>
 </sst>
 </file>
@@ -792,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1127,9 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
@@ -1179,7 +1205,9 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
     </row>
@@ -1224,8 +1252,12 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1235,19 +1267,31 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1257,8 +1301,12 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1635,9 +1683,10 @@
     <hyperlink ref="G18" r:id="rId12"/>
     <hyperlink ref="G21" r:id="rId13"/>
     <hyperlink ref="G20" r:id="rId14"/>
+    <hyperlink ref="G19" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/DL_List_Self.xlsx
+++ b/DL_List_Self.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Deep_Learning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Sushil</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t>S.No</t>
   </si>
@@ -366,13 +366,118 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PZ5C6Is4Xfg&amp;t=1s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M7Nrw5dthXI&amp;t=14s</t>
+  </si>
+  <si>
+    <t>dobut clearing session Tensorboard</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qiNgoc4sLpI&amp;t=2s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_9K-6A7M20E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7c5gNfrivqs&amp;t=2s</t>
+  </si>
+  <si>
+    <t>30th OCT</t>
+  </si>
+  <si>
+    <t>31st OCT</t>
+  </si>
+  <si>
+    <t>6th NOV</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HykEhcNAq5Y&amp;t=2s</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ER1mzLEwJaE</t>
+  </si>
+  <si>
+    <t>Google dialogflow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R4Z-BkewQS0</t>
+  </si>
+  <si>
+    <t>7th NOV</t>
+  </si>
+  <si>
+    <t>Chain rules,Backpropagation</t>
+  </si>
+  <si>
+    <t>Backpropagation,Problem in GD</t>
+  </si>
+  <si>
+    <t>Tensorflow basic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=25sJmKpAeSI&amp;t=1s</t>
+  </si>
+  <si>
+    <t>14thsep</t>
+  </si>
+  <si>
+    <t>Tesnorflow Operation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UC6Wsh6wJyY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z7RK8KFFXLg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WhEH2Cm4Of4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ThAH_JTcWIg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FwLL7YHRUlQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WpW9Djen7NM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yf9A2K3apg4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l_GEYJh3foY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLyKHdz0TvDSM7fz3AlCQWMs12iXMEkHDk</t>
+  </si>
+  <si>
+    <t>Playlist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nknZIPdSIdk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vNnMWnDl-fY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=831eb-GUumk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GkPdaCH6QmM  https://www.youtube.com/watch?v=eK8GjfwGXWQ&amp;list=PLyKHdz0TvDSM7fz3AlCQWMs12iXMEkHDk&amp;index=9</t>
+  </si>
+  <si>
+    <t>Activation function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +521,23 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,13 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +615,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -517,22 +627,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -814,879 +936,1040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="92.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:11" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="18">
+        <v>7</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="10">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="10">
+        <v>12</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="C24" s="10">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="10">
+        <v>15</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="10">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="10">
+        <v>17</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="18">
+        <v>18</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10">
+        <v>19</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="9">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="9">
+        <v>21</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
-    <hyperlink ref="G13" r:id="rId10"/>
-    <hyperlink ref="G14" r:id="rId11"/>
-    <hyperlink ref="G18" r:id="rId12"/>
-    <hyperlink ref="G21" r:id="rId13"/>
-    <hyperlink ref="G20" r:id="rId14"/>
-    <hyperlink ref="G19" r:id="rId15"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="H9" r:id="rId4"/>
+    <hyperlink ref="H5" r:id="rId5"/>
+    <hyperlink ref="H6" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="H11" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11"/>
+    <hyperlink ref="H18" r:id="rId12"/>
+    <hyperlink ref="H21" r:id="rId13"/>
+    <hyperlink ref="H20" r:id="rId14"/>
+    <hyperlink ref="H19" r:id="rId15"/>
+    <hyperlink ref="H25" r:id="rId16"/>
+    <hyperlink ref="H26" r:id="rId17"/>
+    <hyperlink ref="H27" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1762,41 +2045,150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DL_List_Self.xlsx
+++ b/DL_List_Self.xlsx
@@ -16,6 +16,8 @@
     <sheet name="MLOPS" sheetId="2" r:id="rId2"/>
     <sheet name="Github_Project" sheetId="3" r:id="rId3"/>
     <sheet name="Community_class" sheetId="4" r:id="rId4"/>
+    <sheet name="Chatbot" sheetId="5" r:id="rId5"/>
+    <sheet name="Image_classifier" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -104,12 +106,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="G49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sushil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CNN Baiscs as requested by many for Reference:
+22nd Nov Live Class Recording CNN Intro        https://youtu.be/UburAhxQt7w
+29th Nov Live class recording | CNN sequential architecture family        https://youtu.be/gaOAgc3C4yI</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
   <si>
     <t>S.No</t>
   </si>
@@ -422,9 +450,6 @@
     <t>https://www.youtube.com/watch?v=25sJmKpAeSI&amp;t=1s</t>
   </si>
   <si>
-    <t>14thsep</t>
-  </si>
-  <si>
     <t>Tesnorflow Operation</t>
   </si>
   <si>
@@ -471,13 +496,153 @@
   </si>
   <si>
     <t>Activation function</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tyM-qDRTPHg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pt-RVgLMsCc&amp;t=3s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VqMXtpo_e-U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MaPCRf21JHE&amp;t=1s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IyKJLcO6J-c&amp;t=5s</t>
+  </si>
+  <si>
+    <t>4thDEC</t>
+  </si>
+  <si>
+    <t>CNN Introduction</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k0JvIAHXTA8&amp;t=3s</t>
+  </si>
+  <si>
+    <t>13th NOV</t>
+  </si>
+  <si>
+    <t>14th NOV</t>
+  </si>
+  <si>
+    <t>16th NOV</t>
+  </si>
+  <si>
+    <t>17th NOV</t>
+  </si>
+  <si>
+    <t>18th NOV</t>
+  </si>
+  <si>
+    <t>18thNOV</t>
+  </si>
+  <si>
+    <t>20th NOV</t>
+  </si>
+  <si>
+    <t>21st  NOV</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IBaizMEGfik</t>
+  </si>
+  <si>
+    <t>22ndNOV</t>
+  </si>
+  <si>
+    <t>23rd NOV</t>
+  </si>
+  <si>
+    <t>24th NOV</t>
+  </si>
+  <si>
+    <t>25th NOV</t>
+  </si>
+  <si>
+    <t>26th NOV</t>
+  </si>
+  <si>
+    <t>27th NOV</t>
+  </si>
+  <si>
+    <t>28th NOV</t>
+  </si>
+  <si>
+    <t>30th NOV</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8xpDDB9w-h8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r14R_y1DCAw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nr9R</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tvW22AqYfTo&amp;t=5034s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kLn0A3EC2UM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vx62T-mvtmw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zGorGFjCDWc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5j_Jpr5XHHg</t>
+  </si>
+  <si>
+    <t>1st DEC</t>
+  </si>
+  <si>
+    <t>2nd DEV</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UburAhxQt7w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gaOAgc3C4yI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y1qxI-Df4Lk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tXmqJGL8oAU&amp;t=691s</t>
+  </si>
+  <si>
+    <t>5th DEC</t>
+  </si>
+  <si>
+    <t>CNN Introduction-Contiune</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>CNN Baiscs as requested by many for Reference:
+22nd Nov Live Class Recording CNN Intro        https://youtu.be/UburAhxQt7w
+29th Nov Live class recording | CNN sequential architecture family        https://youtu.be/gaOAgc3C4yI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ubub9Nz681s&amp;list=PLrYq9TGMS8e8E4ZTjFKiwsy_EntyNbDEm</t>
+  </si>
+  <si>
+    <t>https://github.com/AndroidArena/BestCovid19_bot-DialogFlow</t>
+  </si>
+  <si>
+    <t>backpropagation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,23 +686,8 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +709,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -624,9 +786,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -646,15 +805,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +1114,7 @@
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="60.85546875" customWidth="1"/>
     <col min="11" max="11" width="92.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -984,967 +1148,1165 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="3" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="17" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="9">
         <v>7</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="6">
         <v>8</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>10</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>11</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>12</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>13</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>14</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>15</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>16</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>17</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="6">
         <v>18</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="9">
         <v>19</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C31" s="9">
         <v>20</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="6">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="6">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="6">
+        <v>23</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="6">
+        <v>24</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="6">
+        <v>25</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="6">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="6">
+        <v>27</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="6">
+        <v>28</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="6">
+        <v>29</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="6">
+        <v>30</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="6">
+        <v>31</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="6">
+        <v>32</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="6">
         <v>33</v>
       </c>
-      <c r="C32" s="9">
-        <v>21</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="6">
+        <v>34</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="21">
+        <v>35</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="1:10" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="21">
+        <v>36</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1966,10 +2328,15 @@
     <hyperlink ref="H25" r:id="rId16"/>
     <hyperlink ref="H26" r:id="rId17"/>
     <hyperlink ref="H27" r:id="rId18"/>
+    <hyperlink ref="H31" r:id="rId19"/>
+    <hyperlink ref="H32" r:id="rId20"/>
+    <hyperlink ref="H30" r:id="rId21"/>
+    <hyperlink ref="H29" r:id="rId22"/>
+    <hyperlink ref="K8" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -2017,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,6 +2403,11 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2081,12 +2453,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2192,4 +2564,47 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>